--- a/data/trans_dic/VUL_ANS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,26%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,42</t>
+          <t>1,43; 3,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,46</t>
+          <t>1,98; 6,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,11</t>
+          <t>0,49; 2,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,09</t>
+          <t>2,45; 5,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,67</t>
+          <t>4,12; 9,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,99</t>
+          <t>1,7; 4,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,18</t>
+          <t>2,18; 4,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,32</t>
+          <t>3,47; 6,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,74</t>
+          <t>1,29; 3,15</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,1</t>
+          <t>1,92; 5,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,79</t>
+          <t>2,97; 8,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,03</t>
+          <t>1,32; 4,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,43</t>
+          <t>2,46; 5,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 11,53</t>
+          <t>5,69; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,01</t>
+          <t>2,27; 6,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,12</t>
+          <t>2,65; 5,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,24</t>
+          <t>4,81; 8,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,95</t>
+          <t>2,3; 4,99</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,59</t>
+          <t>2,22; 4,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,86</t>
+          <t>0,28; 4,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,36</t>
+          <t>1,13; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,72</t>
+          <t>4,26; 9,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,44</t>
+          <t>7,18; 18,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 8,06</t>
+          <t>4,31; 14,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,68</t>
+          <t>3,18; 5,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,34</t>
+          <t>1,13; 7,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,8</t>
+          <t>2,5; 6,39</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,47</t>
+          <t>3,35; 6,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,76</t>
+          <t>2,61; 6,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,75</t>
+          <t>1,42; 4,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,94</t>
+          <t>4,85; 8,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,13</t>
+          <t>2,57; 10,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,97</t>
+          <t>3,96; 8,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,45</t>
+          <t>4,5; 6,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,33</t>
+          <t>3,15; 7,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,41</t>
+          <t>2,97; 5,62</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,36</t>
+          <t>1,11; 4,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,76</t>
+          <t>1,46; 7,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,94</t>
+          <t>1,35; 5,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,16</t>
+          <t>4,83; 8,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,1</t>
+          <t>5,31; 12,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,69</t>
+          <t>2,8; 8,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,86</t>
+          <t>3,78; 6,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,12</t>
+          <t>4,92; 9,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,72</t>
+          <t>2,53; 6,3</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,4</t>
+          <t>0,17; 2,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,0</t>
+          <t>0,52; 10,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,77</t>
+          <t>0,0; 18,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,67</t>
+          <t>5,66; 10,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,7</t>
+          <t>7,68; 13,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,7</t>
+          <t>0,0; 42,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 22,61</t>
+          <t>4,12; 7,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,68; 10,02</t>
+          <t>6,55; 11,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,44</t>
+          <t>0,97; 22,68</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,17</t>
+          <t>2,62; 3,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,18</t>
+          <t>2,39; 4,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,39</t>
+          <t>1,75; 3,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,94</t>
+          <t>4,94; 6,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,85; 9,97</t>
+          <t>6,13; 9,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,09</t>
+          <t>3,72; 5,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,11</t>
+          <t>3,99; 4,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 7,46</t>
+          <t>4,75; 6,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 4,61</t>
+          <t>2,91; 4,12</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante la ansiedad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3447</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13519</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5046</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19403</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8083</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8494</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32923</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11815</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2074; 5237</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7213; 22601</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1439; 8575</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3514; 7449</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12311; 27646</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4695; 12983</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6277; 11546</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23052; 44892</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7366; 18003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15991</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21956</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8503</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>37947</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13837</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1555; 4826</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9610; 26090</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2580; 9109</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2678; 6248</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14794; 31985</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5239; 14192</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5028; 9776</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28104; 49849</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9811; 21239</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5399</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8834</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4288</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4118</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11445</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6624</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20279</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10912</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3608; 7745</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1311; 22100</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2046; 8432</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2694; 6026</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7001; 17918</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3569; 11922</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7193; 12635</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6468; 41097</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6578; 16815</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7851</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22206</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7819</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11237</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>42724</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17899</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19088</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>64930</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25718</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5697; 10981</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14001; 32966</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4382; 12752</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8615; 14444</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16328; 68616</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12542; 25835</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15662; 23120</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36934; 85744</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18562; 35141</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7507</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4855</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8478</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40542</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7691</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10359</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48049</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>12547</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>850; 3577</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3091; 15774</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2032; 8862</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6406; 11070</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>22498; 54078</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4336; 13161</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7894; 13457</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31246; 61227</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7737; 19264</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5779</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8878</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>49765</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9251</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>55544</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>77; 1139</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>863; 18009</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6674; 11846</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37656; 64381</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4854</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6711; 12117</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>43039; 75029</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>202; 4713</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>21833</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>73836</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>26422</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>41931</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>185836</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>49927</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>63764</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>259672</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>76348</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17793; 26602</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>49584; 97236</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>19975; 35176</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>36749; 48301</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>135220; 218292</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>39895; 61935</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>56789; 70543</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>203499; 297972</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>64385; 91127</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_ANS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad</t>
+          <t>Vulnerabilidad ante la ansiedad (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad</t>
+          <t>Vulnerabilidad ante la ansiedad (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_ANS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,61</t>
+          <t>1,39; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,2</t>
+          <t>2,11; 6,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,2</t>
+          <t>1,9; 4,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,25</t>
+          <t>4,4; 9,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,0</t>
+          <t>1,97; 3,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,76</t>
+          <t>3,6; 6,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,95</t>
+          <t>2,12; 5,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,05</t>
+          <t>2,89; 8,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,73</t>
+          <t>2,49; 5,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,3</t>
+          <t>5,69; 12,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,14</t>
+          <t>2,81; 5,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,53</t>
+          <t>4,75; 8,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,76</t>
+          <t>2,06; 4,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,66</t>
+          <t>0,39; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,54</t>
+          <t>5,01; 11,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 18,37</t>
+          <t>7,82; 17,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,59</t>
+          <t>3,4; 5,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 7,18</t>
+          <t>1,15; 6,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,46</t>
+          <t>3,18; 5,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,15</t>
+          <t>2,65; 6,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,13</t>
+          <t>4,48; 7,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,78</t>
+          <t>2,57; 10,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 6,65</t>
+          <t>4,21; 6,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,31</t>
+          <t>3,25; 7,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,69</t>
+          <t>0,79; 3,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,47</t>
+          <t>1,52; 7,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 8,35</t>
+          <t>5,56; 9,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 12,76</t>
+          <t>5,02; 12,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,44</t>
+          <t>4,12; 6,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,64</t>
+          <t>4,94; 9,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,53</t>
+          <t>0,39; 4,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 10,8</t>
+          <t>0,43; 11,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,05</t>
+          <t>4,83; 8,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,13</t>
+          <t>7,98; 13,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,44</t>
+          <t>3,44; 6,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,42</t>
+          <t>6,41; 11,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,91</t>
+          <t>2,58; 3,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,68</t>
+          <t>2,36; 4,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 6,5</t>
+          <t>4,71; 6,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,89</t>
+          <t>5,86; 9,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 4,95</t>
+          <t>3,84; 4,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,95</t>
+          <t>4,79; 7,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5046</t>
+          <t>4788</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8494</t>
+          <t>8699</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2074; 5237</t>
+          <t>2262; 5847</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7213; 22601</t>
+          <t>7704; 22103</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3514; 7449</t>
+          <t>3213; 7087</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12311; 27646</t>
+          <t>13148; 28576</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6277; 11546</t>
+          <t>6535; 11779</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23052; 44892</t>
+          <t>23863; 44586</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>4917</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7055</t>
+          <t>8137</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1555; 4826</t>
+          <t>1910; 5303</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9610; 26090</t>
+          <t>9350; 25924</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2678; 6248</t>
+          <t>3050; 7293</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14794; 31985</t>
+          <t>14790; 31975</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5028; 9776</t>
+          <t>5978; 11185</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28104; 49849</t>
+          <t>27753; 50829</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5399</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4118</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9517</t>
+          <t>9554</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3608; 7745</t>
+          <t>3167; 7081</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1311; 22100</t>
+          <t>1860; 22002</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2694; 6026</t>
+          <t>3103; 6985</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7001; 17918</t>
+          <t>7625; 17152</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7193; 12635</t>
+          <t>7321; 12423</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6468; 41097</t>
+          <t>6587; 39715</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7851</t>
+          <t>7587</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11237</t>
+          <t>10626</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19088</t>
+          <t>18214</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5697; 10981</t>
+          <t>5418; 10181</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14001; 32966</t>
+          <t>14210; 34473</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8615; 14444</t>
+          <t>8205; 13770</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16328; 68616</t>
+          <t>16351; 68494</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15662; 23120</t>
+          <t>14883; 22283</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36934; 85744</t>
+          <t>38103; 86272</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8478</t>
+          <t>9168</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10359</t>
+          <t>10509</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>850; 3577</t>
+          <t>584; 2493</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3091; 15774</t>
+          <t>3204; 15914</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6406; 11070</t>
+          <t>6960; 11912</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22498; 54078</t>
+          <t>21274; 52334</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7894; 13457</t>
+          <t>8191; 13758</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31246; 61227</t>
+          <t>31361; 61922</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>828</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8878</t>
+          <t>7854</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9251</t>
+          <t>8682</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>77; 1139</t>
+          <t>214; 2594</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>863; 18009</t>
+          <t>720; 19643</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6674; 11846</t>
+          <t>5913; 10761</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>37656; 64381</t>
+          <t>39154; 65411</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6711; 12117</t>
+          <t>6117; 11630</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>43039; 75029</t>
+          <t>42140; 73640</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21833</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>41931</t>
+          <t>42123</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>63764</t>
+          <t>63795</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>17793; 26602</t>
+          <t>18170; 25971</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>49584; 97236</t>
+          <t>48978; 97633</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>36749; 48301</t>
+          <t>36911; 47935</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>135220; 218292</t>
+          <t>129376; 216207</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>56789; 70543</t>
+          <t>57206; 70679</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>203499; 297972</t>
+          <t>205285; 304388</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_ANS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,41%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,84%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,92%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,63%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,98; 5,74</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,9</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,39; 3,6</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 6,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 2,9</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>4,71; 10,09</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 4,69</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1,9; 4,2</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 9,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 4,69</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>3,63; 6,77</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 3,15</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1,97; 3,56</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 6,72</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 3,15</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>3,57%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>4,01%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,69%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>3,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,96; 8,03</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 4,66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2,12; 5,87</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 8,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 4,66</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>5,5; 11,62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 6,16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>2,49; 5,95</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,69; 12,29</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 6,16</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>4,7; 8,49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 4,99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2,81; 5,26</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 8,7</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 4,99</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,12%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7,7%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,73%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,0%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,08; 7,61</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 4,68</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>2,06; 4,62</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 4,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 4,68</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>7,7; 17,44</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 14,4</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>5,01; 11,28</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 17,58</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 14,4</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>4,26; 8,98</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 6,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3,4; 5,77</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 6,94</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 6,39</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4,45%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,54%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,81%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,71%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,66%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>5,15%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,7; 6,57</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 4,13</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>3,18; 5,97</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 6,43</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 4,13</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>7,61; 12,25</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 8,17</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,48; 7,52</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 10,76</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 8,17</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>5,39; 8,27</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 5,62</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>4,21; 6,3</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 7,36</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 5,62</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,82%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,22%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>11,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7,32%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,56%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5,28%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,29; 6,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 5,87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,79; 3,38</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 7,53</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 5,87</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>8,95; 13,98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 8,49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>5,56; 9,51</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,02; 12,34</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 8,49</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>6,62; 10,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 6,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>4,12; 6,91</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 9,75</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 6,3</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,5%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>6,42%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,15%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,86%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>4,89%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,86; 10,81</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 18,35</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,39; 4,7</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 11,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 18,35</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>7,86; 13,0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 42,45</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>4,83; 8,79</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,98; 13,34</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 42,45</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>6,55; 11,06</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 22,68</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>3,44; 6,55</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,41; 11,2</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 22,68</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>3,07%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>5,37%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>8,42%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>4,28%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,13; 5,1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 3,09</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>2,58; 3,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 4,7</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 3,09</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>8,43; 10,85</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 5,77</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>4,71; 6,11</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>5,86; 9,79</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 5,77</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>6,2; 7,76</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 4,12</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>3,84; 4,75</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 7,1</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 4,12</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,19 +1549,19 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
           <t>29</t>
@@ -1569,27 +1569,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>50</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>13691</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>3911</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>13519</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3732</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>22420</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8083</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>4788</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>19403</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>8083</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>36111</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11815</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>8699</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>32923</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>11815</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7793; 22581</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1439; 8575</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2262; 5847</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7704; 22103</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1439; 8575</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>15435; 33044</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4695; 12983</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>3213; 7087</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13148; 28576</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4695; 12983</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>26167; 48805</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7366; 18003</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>6535; 11779</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>23863; 44586</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7366; 18003</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17507</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3220</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>15991</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5334</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>22975</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8503</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>4917</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>21956</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8503</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>40481</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13837</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>8137</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>37947</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13837</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>10193; 27639</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2580; 9109</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1910; 5303</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9350; 25924</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2580; 9109</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>15788; 33330</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5239; 14192</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>3050; 7293</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>14790; 31975</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5239; 14192</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>29676; 53627</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9811; 21239</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>5978; 11185</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>27753; 50829</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>9811; 21239</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>55</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>10218</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4288</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>4785</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8834</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4288</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>12931</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6624</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4769</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11445</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6624</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>23149</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10912</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>9554</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>20279</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>10912</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5391; 19750</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2046; 8432</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3167; 7081</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1860; 22002</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2046; 8432</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>8584; 19446</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3569; 11922</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>3103; 6985</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7625; 17152</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3569; 11922</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>15824; 33314</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6578; 16815</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>7321; 12423</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6587; 39715</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6578; 16815</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>109</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>25698</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7819</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>7587</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22206</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7819</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>47876</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17899</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>10626</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>42724</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17899</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>73574</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25718</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>18214</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>64930</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>25718</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>16486; 40077</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4382; 12752</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>5418; 10181</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>14210; 34473</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4382; 12752</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>37279; 60037</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12542; 25835</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>8205; 13770</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>16351; 68494</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12542; 25835</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>59243; 90953</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18562; 35141</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>14883; 22283</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>38103; 86272</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>18562; 35141</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>62</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7672</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4855</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1341</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7507</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4855</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>46265</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7691</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>9168</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>40542</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7691</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>53937</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12547</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>10509</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>48049</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>12547</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3274; 16332</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2032; 8862</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>584; 2493</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3204; 15914</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2032; 8862</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>36513; 57044</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4336; 13161</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>6960; 11912</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>21274; 52334</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>4336; 13161</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>43802; 66730</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7737; 19264</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>8191; 13758</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>31361; 61922</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>7737; 19264</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6110</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>828</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5779</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>394</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>54799</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>7854</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>49765</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>60909</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>8682</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>55544</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1521</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>1456; 18324</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>214; 2594</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>720; 19643</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0; 1715</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>43008; 71148</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4854</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>5913; 10761</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>39154; 65411</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4854</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>46997; 79269</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>202; 4713</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>6117; 11630</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>42140; 73640</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>202; 4713</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>249</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>369</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>364</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>144</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>80896</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26422</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>21672</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>73836</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>26422</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>207266</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>49927</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>42123</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>185836</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>49927</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>288162</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>76348</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>63795</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>259672</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>76348</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>63579; 103530</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19975; 35176</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>18170; 25971</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>48978; 97633</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>19975; 35176</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>183016; 235590</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>39895; 61935</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>36911; 47935</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>129376; 216207</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>39895; 61935</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>260553; 326188</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>64385; 91127</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>57206; 70679</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>205285; 304388</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>64385; 91127</t>
         </is>
       </c>
     </row>
